--- a/DATA ANALYTICS.xlsx
+++ b/DATA ANALYTICS.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29628"/>
   <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E686AA0-D592-1348-9CD2-44CC1917CB80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7620" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19890" windowHeight="7620" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -13,16 +14,16 @@
     <sheet name="Student_Data" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Student_Data!$A$1:$N$23</definedName>
     <definedName name="Slicer_Department">#N/A</definedName>
     <definedName name="Slicer_Gender">#N/A</definedName>
     <definedName name="Slicer_Performance_Status">#N/A</definedName>
     <definedName name="Slicer_Semester">#N/A</definedName>
     <definedName name="Slicer_Student_ID">#N/A</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Student_Data!$A$1:$N$23</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -163,14 +164,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -182,159 +177,8 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -347,194 +191,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -542,251 +200,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -803,58 +219,16 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Link" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -897,26 +271,23 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -926,13 +297,8 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[DATA ANALYTICS.xlsx]Sheet2!PivotTable3</c:name>
-    <c:fmtId val="1"/>
-  </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -958,6 +324,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -970,17 +337,8 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sum of AVG GPA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Sum of AVG GPA</c:v>
           </c:tx>
-          <c:explosion val="0"/>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
@@ -1065,8 +423,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.00916491688538933"/>
-                  <c:y val="-0.0331404928550598"/>
+                  <c:x val="-9.1649168853893299E-3"/>
+                  <c:y val="-3.3140492855059801E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -1077,16 +435,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.0787962598425197"/>
+                  <c:x val="7.87962598425197E-2"/>
                   <c:y val="-0.12051108194809"/>
                 </c:manualLayout>
               </c:layout>
@@ -1098,17 +454,15 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.0267243000874891"/>
-                  <c:y val="0.0154910323709536"/>
+                  <c:x val="2.6724300087489099E-2"/>
+                  <c:y val="1.54910323709536E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -1119,16 +473,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.038966426071741"/>
+                  <c:x val="-3.8966426071741E-2"/>
                   <c:y val="0.104600102070575"/>
                 </c:manualLayout>
               </c:layout>
@@ -1140,16 +492,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.130839129483815"/>
+                  <c:x val="-0.13083912948381499"/>
                   <c:y val="0.115346675415573"/>
                 </c:manualLayout>
               </c:layout>
@@ -1161,9 +511,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -1192,6 +540,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="bestFit"/>
@@ -1202,81 +551,77 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:prstDash val="solid"/>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$A$4:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>CIVIL</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>CSE</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ECE</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>EEE</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MECHANICAL</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Grand Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:strLit>
+              <c:ptCount val="6"/>
+              <c:pt idx="0">
+                <c:v>CIVIL</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>CSE</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>ECE</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>EEE</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>MECHANICAL</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>Grand Total</c:v>
+              </c:pt>
+            </c:strLit>
           </c:cat>
           <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$B$4:$B$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>8.12</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.44333333333333</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.405</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.40285714285714</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.17333333333333</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>38.5445238095238</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="6"/>
+              <c:pt idx="0">
+                <c:v>8.1199999999999992</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>7.4433333333333298</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>7.4050000000000002</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>7.4028571428571404</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>8.1733333333333302</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>38.544523809523803</c:v>
+              </c:pt>
+            </c:numLit>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EF8F-784C-A920-0A8209A0C12D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1299,7 +644,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1325,6 +669,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1360,6 +705,7 @@
       <a:pPr>
         <a:defRPr lang="en-GB"/>
       </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1371,9 +717,9 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1392,9 +738,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.275219129121064"/>
-          <c:y val="0.0869421667929902"/>
-          <c:w val="0.624564741907262"/>
-          <c:h val="0.806576261300671"/>
+          <c:y val="8.6942166792990203E-2"/>
+          <c:w val="0.62456474190726197"/>
+          <c:h val="0.80657626130067095"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1452,6 +798,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1464,7 +811,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1518,6 +864,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B96E-9A42-8703-6E38D12A7166}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1572,6 +923,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="519936976"/>
@@ -1616,6 +968,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="519936496"/>
@@ -1632,7 +985,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1658,6 +1010,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1687,6 +1040,7 @@
       <a:pPr>
         <a:defRPr lang="en-GB"/>
       </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1698,9 +1052,9 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1718,10 +1072,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.32914294427186"/>
-          <c:y val="0.189043945822587"/>
-          <c:w val="0.323576173335191"/>
-          <c:h val="0.540287224674116"/>
+          <c:x val="0.32914294427186003"/>
+          <c:y val="0.18904394582258699"/>
+          <c:w val="0.32357617333519101"/>
+          <c:h val="0.54028722467411605"/>
         </c:manualLayout>
       </c:layout>
       <c:doughnutChart>
@@ -1740,8 +1094,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr/>
-          <c:explosion val="0"/>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
@@ -1793,8 +1145,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.080453897164497"/>
-                  <c:y val="-0.0469135674775942"/>
+                  <c:x val="8.0453897164496996E-2"/>
+                  <c:y val="-4.6913567477594197E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -1804,9 +1156,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1814,7 +1164,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0.138713615800857"/>
-                  <c:y val="0.173580199667098"/>
+                  <c:y val="0.17358019966709801"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -1824,17 +1174,15 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.196973334437217"/>
-                  <c:y val="0.0891357782074288"/>
+                  <c:x val="-0.19697333443721701"/>
+                  <c:y val="8.9135778207428795E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -1844,9 +1192,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -1875,6 +1221,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1884,25 +1231,22 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1940,6 +1284,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FD38-E344-965A-DCDF46529C5E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1963,7 +1312,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1989,6 +1337,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2023,6 +1372,7 @@
       <a:pPr>
         <a:defRPr lang="en-GB"/>
       </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2034,9 +1384,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2052,7 +1402,6 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2075,20 +1424,103 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:shade val="51000"/>
+                  <a:satMod val="130000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="80000">
+                <a:schemeClr val="accent1">
+                  <a:shade val="93000"/>
+                  <a:satMod val="130000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:shade val="94000"/>
+                  <a:satMod val="135000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="16200000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-GB" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0538178345770632"/>
-          <c:y val="0.221979189166694"/>
-          <c:w val="0.946182165422937"/>
-          <c:h val="0.47159124797942"/>
+          <c:x val="5.3817834577063198E-2"/>
+          <c:y val="0.22197918916669401"/>
+          <c:w val="0.94618216542293698"/>
+          <c:h val="0.47159124797941998"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2169,6 +1601,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2181,7 +1614,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2280,7 +1712,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>8.72</c:v>
+                  <c:v>8.7200000000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6.34</c:v>
@@ -2289,7 +1721,7 @@
                   <c:v>7.14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.22</c:v>
+                  <c:v>8.2200000000000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>6.48</c:v>
@@ -2307,7 +1739,7 @@
                   <c:v>7.3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.62</c:v>
+                  <c:v>8.6199999999999992</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>6.34</c:v>
@@ -2328,7 +1760,7 @@
                   <c:v>7.02</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.12</c:v>
+                  <c:v>8.1199999999999992</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>6.92</c:v>
@@ -2348,6 +1780,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-696B-E545-AE5B-FA3362289F2D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2400,6 +1837,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="957782272"/>
@@ -2455,6 +1893,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="957786592"/>
@@ -2471,7 +1910,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2494,6 +1932,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2528,6 +1967,7 @@
       <a:pPr>
         <a:defRPr lang="en-GB"/>
       </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2539,9 +1979,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2559,10 +1999,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.32914294427186"/>
-          <c:y val="0.189043945822587"/>
-          <c:w val="0.323576173335191"/>
-          <c:h val="0.540287224674116"/>
+          <c:x val="0.32914294427186003"/>
+          <c:y val="0.18904394582258699"/>
+          <c:w val="0.32357617333519101"/>
+          <c:h val="0.54028722467411605"/>
         </c:manualLayout>
       </c:layout>
       <c:doughnutChart>
@@ -2581,8 +2021,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr/>
-          <c:explosion val="0"/>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
@@ -2684,6 +2122,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2693,24 +2132,21 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="50000"/>
-                          <a:lumOff val="50000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2748,6 +2184,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4950-5043-9880-F4A83C5B9CD2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2771,7 +2212,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -2802,6 +2242,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2852,6 +2293,7 @@
       <a:pPr>
         <a:defRPr lang="en-GB"/>
       </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2863,9 +2305,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2881,6 +2323,107 @@
   </c:pivotSource>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:pattFill prst="pct75">
+              <a:fgClr>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:sysClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-GB" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+    </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
       <c:doughnutChart>
@@ -2899,7 +2442,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:explosion val="0"/>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
@@ -2981,6 +2523,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2990,26 +2533,23 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="50000"/>
-                          <a:lumOff val="50000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:prstDash val="solid"/>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3041,6 +2581,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3A61-A049-834F-B4CF4C61D162}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3064,7 +2609,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -3095,6 +2639,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3127,6 +2672,7 @@
       <a:pPr>
         <a:defRPr lang="en-GB"/>
       </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3138,9 +2684,9 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3158,10 +2704,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.208558340105382"/>
-          <c:y val="0.0823126275882181"/>
-          <c:w val="0.624564741907262"/>
-          <c:h val="0.806576261300671"/>
+          <c:x val="0.20855834010538199"/>
+          <c:y val="8.2312627588218099E-2"/>
+          <c:w val="0.62456474190726197"/>
+          <c:h val="0.80657626130067095"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -3219,6 +2765,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -3231,7 +2778,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3285,6 +2831,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B75D-8646-A8B3-E0E81CE06EF3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3309,25 +2860,6 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-GB" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="519936976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -3346,25 +2878,6 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-GB" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="519936496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -3379,7 +2892,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3405,6 +2917,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3439,6 +2952,7 @@
       <a:pPr>
         <a:defRPr lang="en-GB"/>
       </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3450,9 +2964,9 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3468,16 +2982,86 @@
   </c:pivotSource>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-GB" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0787348373409059"/>
-          <c:y val="0.225136319457835"/>
+          <c:x val="7.8734837340905903E-2"/>
+          <c:y val="0.22513631945783499"/>
           <c:w val="0.73458530183727"/>
-          <c:h val="0.658530912802566"/>
+          <c:h val="0.65853091280256604"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3521,9 +3105,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$I$10:$I$15</c:f>
@@ -3572,6 +3153,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-15C4-F942-AE9A-119D284366B6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3627,6 +3213,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="544947568"/>
@@ -3671,6 +3258,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="544946608"/>
@@ -3687,7 +3275,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3713,6 +3300,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3747,6 +3335,7 @@
       <a:pPr>
         <a:defRPr lang="en-GB"/>
       </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3758,9 +3347,9 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3776,6 +3365,233 @@
   </c:pivotSource>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:pattFill prst="pct75">
+              <a:fgClr>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:sysClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-GB" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="0.114940306323733"/>
+              <c:y val="-0.18314909956314901"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:pattFill prst="pct75">
+              <a:fgClr>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:sysClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-GB" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="-0.12277714539126"/>
+              <c:y val="0.16436457653103101"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:pattFill prst="pct75">
+              <a:fgClr>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:sysClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-GB" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
       <c:doughnutChart>
@@ -3794,7 +3610,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:explosion val="0"/>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
@@ -3839,7 +3654,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0.114940306323733"/>
-                  <c:y val="-0.183149099563149"/>
+                  <c:y val="-0.18314909956314901"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -3849,9 +3664,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3859,7 +3672,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-0.12277714539126"/>
-                  <c:y val="0.164364576531031"/>
+                  <c:y val="0.16436457653103101"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -3869,9 +3682,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -3916,6 +3727,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3925,26 +3737,23 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="50000"/>
-                          <a:lumOff val="50000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:prstDash val="solid"/>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3976,6 +3785,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-510F-A243-AD06-A11C615E39C6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4003,10 +3817,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.396996207660688"/>
-          <c:y val="0.811987262094361"/>
-          <c:w val="0.206007376662646"/>
-          <c:h val="0.188012737905639"/>
+          <c:x val="0.39699620766068799"/>
+          <c:y val="0.81198726209436101"/>
+          <c:w val="0.20600737666264601"/>
+          <c:h val="0.18801273790563899"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4039,6 +3853,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4069,6 +3884,7 @@
       <a:pPr>
         <a:defRPr lang="en-GB"/>
       </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4080,9 +3896,9 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4098,6 +3914,77 @@
   </c:pivotSource>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-GB" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -4105,9 +3992,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.126935089242426"/>
-          <c:y val="0.0786351552145924"/>
+          <c:y val="7.8635155214592398E-2"/>
           <c:w val="0.73458530183727"/>
-          <c:h val="0.658530912802566"/>
+          <c:h val="0.65853091280256604"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -4178,6 +4065,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -4190,7 +4078,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4257,6 +4144,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3072-5A48-BB61-BD46D11174AF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4312,6 +4204,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="544947568"/>
@@ -4370,6 +4263,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="544946608"/>
@@ -4386,7 +4280,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4412,6 +4305,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4446,6 +4340,7 @@
       <a:pPr>
         <a:defRPr lang="en-GB"/>
       </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4457,9 +4352,9 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4475,7 +4370,6 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4501,20 +4395,68 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-GB" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0353158050204243"/>
-          <c:y val="0.169830318526933"/>
-          <c:w val="0.93489617805963"/>
-          <c:h val="0.631272407649387"/>
+          <c:x val="3.53158050204243E-2"/>
+          <c:y val="0.16983031852693301"/>
+          <c:w val="0.93489617805962999"/>
+          <c:h val="0.63127240764938697"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -4560,6 +4502,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -4572,9 +4515,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
-                <c15:leaderLines/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -4659,7 +4600,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>8.72</c:v>
+                  <c:v>8.7200000000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6.34</c:v>
@@ -4668,7 +4609,7 @@
                   <c:v>7.14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.22</c:v>
+                  <c:v>8.2200000000000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>6.48</c:v>
@@ -4686,7 +4627,7 @@
                   <c:v>7.3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.62</c:v>
+                  <c:v>8.6199999999999992</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>6.34</c:v>
@@ -4707,7 +4648,7 @@
                   <c:v>7.02</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.12</c:v>
+                  <c:v>8.1199999999999992</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>6.92</c:v>
@@ -4727,6 +4668,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CA47-0D45-840F-962F5E5DD87A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4783,6 +4729,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="957782272"/>
@@ -4829,6 +4776,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="957786592"/>
@@ -4838,7 +4786,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4864,6 +4811,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4890,6 +4838,7 @@
       <a:pPr>
         <a:defRPr lang="en-GB"/>
       </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8812,7 +8761,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -8826,14 +8775,20 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>37951</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1595120" y="989965"/>
-        <a:ext cx="4814570" cy="2857500"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8847,7 +8802,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -8861,14 +8816,20 @@
       <xdr:row>61</xdr:row>
       <xdr:rowOff>126503</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2717165" y="8622665"/>
-        <a:ext cx="8253730" cy="3124200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8891,14 +8852,20 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>88552</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10814050" y="5993765"/>
-        <a:ext cx="4634865" cy="2857500"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8921,14 +8888,20 @@
       <xdr:row>42</xdr:row>
       <xdr:rowOff>139154</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5594985" y="5473065"/>
-        <a:ext cx="3768725" cy="2667000"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8951,14 +8924,20 @@
       <xdr:row>41</xdr:row>
       <xdr:rowOff>177105</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvPr id="5" name="图表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="260350" y="5092065"/>
-        <a:ext cx="4732655" cy="2894965"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8981,9 +8960,15 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>88552</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name=" "/>
+        <xdr:cNvPr id="6" name=" ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9018,6 +9003,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9036,9 +9022,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>101203</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name=" "/>
+        <xdr:cNvPr id="7" name=" ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9073,6 +9065,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9091,14 +9084,20 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>63251</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="图表 7"/>
+        <xdr:cNvPr id="8" name="图表 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6430010" y="2857500"/>
-        <a:ext cx="3871595" cy="2158365"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9121,9 +9120,15 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>113853</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name=" "/>
+        <xdr:cNvPr id="9" name=" ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9158,6 +9163,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9176,9 +9182,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>88552</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name=" "/>
+        <xdr:cNvPr id="10" name=" ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9213,6 +9225,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9231,9 +9244,15 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>12650</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name=" "/>
+        <xdr:cNvPr id="11" name=" ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9268,6 +9287,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9277,7 +9297,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -9291,9 +9311,15 @@
       <xdr:row>44</xdr:row>
       <xdr:rowOff>113853</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="rect"/>
+        <xdr:cNvPr id="2" name="rect">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9335,6 +9361,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9353,14 +9380,20 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>101203</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10554335" y="925830"/>
-        <a:ext cx="5175885" cy="2794635"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9383,14 +9416,20 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>139154</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="194945" y="964565"/>
-        <a:ext cx="5389880" cy="2794000"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9413,14 +9452,20 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>12650</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvPr id="5" name="图表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2102485" y="3682365"/>
-        <a:ext cx="7492365" cy="4521200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9443,9 +9488,15 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>25300</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name=" "/>
+        <xdr:cNvPr id="6" name=" ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9480,6 +9531,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9498,9 +9550,15 @@
       <xdr:row>44</xdr:row>
       <xdr:rowOff>139154</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name=" "/>
+        <xdr:cNvPr id="7" name=" ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9535,6 +9593,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9553,14 +9612,20 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>25300</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="图表 7"/>
+        <xdr:cNvPr id="8" name="图表 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9568180" y="3695065"/>
-        <a:ext cx="6130290" cy="2997200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9583,9 +9648,15 @@
       <xdr:row>39</xdr:row>
       <xdr:rowOff>75902</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name=" "/>
+        <xdr:cNvPr id="9" name=" ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9637,13 +9708,6 @@
             </a:rPr>
             <a:t>STUDENT ATTENDANCE PERCENTAGE</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Calibri" panose="020F0502020204030204" charset="0"/>
-            <a:ea typeface="Calibri" panose="020F0502020204030204" charset="0"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -9667,13 +9731,6 @@
             </a:rPr>
             <a:t> </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Calibri" panose="020F0502020204030204" charset="0"/>
-            <a:ea typeface="Calibri" panose="020F0502020204030204" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9692,9 +9749,15 @@
       <xdr:row>44</xdr:row>
       <xdr:rowOff>25300</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name=" "/>
+        <xdr:cNvPr id="10" name=" ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9748,13 +9811,6 @@
             </a:rPr>
             <a:t>AVERAGE PERCENTAGE</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Calibri" panose="020F0502020204030204" charset="0"/>
-            <a:ea typeface="Calibri" panose="020F0502020204030204" charset="0"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -9778,16 +9834,10 @@
             </a:rPr>
             <a:t> </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Calibri" panose="020F0502020204030204" charset="0"/>
-            <a:ea typeface="Calibri" panose="020F0502020204030204" charset="0"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9806,9 +9856,15 @@
       <xdr:row>40</xdr:row>
       <xdr:rowOff>9673</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name=" "/>
+        <xdr:cNvPr id="11" name=" ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9850,6 +9906,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9868,9 +9925,15 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>50601</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name=" "/>
+        <xdr:cNvPr id="12" name=" ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9922,13 +9985,6 @@
             </a:rPr>
             <a:t>UNIVERSITY STUDENT PERFORMANCE TRACKER</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2800" b="1">
-            <a:solidFill>
-              <a:srgbClr val="008000"/>
-            </a:solidFill>
-            <a:latin typeface="Calibri" panose="020F0502020204030204" charset="0"/>
-            <a:ea typeface="Calibri" panose="020F0502020204030204" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9949,11 +10005,17 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Graphic 29" descr="Customer review with solid fill"/>
+        <xdr:cNvPr id="13" name="Graphic 29" descr="Customer review with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -9991,11 +10053,17 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Graphic 31" descr="Graduation cap with solid fill"/>
+        <xdr:cNvPr id="14" name="Graphic 31" descr="Graduation cap with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -10031,9 +10099,15 @@
       <xdr:row>73</xdr:row>
       <xdr:rowOff>25300</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name=" "/>
+        <xdr:cNvPr id="15" name=" ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10077,6 +10151,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -10095,9 +10170,15 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>151804</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name=" "/>
+        <xdr:cNvPr id="16" name=" ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10132,6 +10213,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -10150,18 +10232,24 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>50601</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="17" name="图表 16"/>
+        <xdr:cNvPr id="17" name="图表 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5396865" y="964565"/>
-        <a:ext cx="5128895" cy="2705100"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10171,7 +10259,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" refreshedDate="46049.5072959491" refreshedBy="Tharun Gowda" recordCount="22">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Tharun Gowda" refreshedDate="46049.507295949101" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="22" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
@@ -10229,15 +10317,33 @@
         <n v="2"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Attendance_%" numFmtId="0"/>
-    <cacheField name="Maths" numFmtId="0"/>
-    <cacheField name="Physics" numFmtId="0"/>
-    <cacheField name="Chemistry" numFmtId="0"/>
-    <cacheField name="Computer_Science" numFmtId="0"/>
-    <cacheField name="English" numFmtId="0"/>
-    <cacheField name="Total_Marks" numFmtId="0"/>
-    <cacheField name="Overall_%" numFmtId="0"/>
-    <cacheField name="GPA" numFmtId="0"/>
+    <cacheField name="Attendance_%" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="Maths" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="Physics" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="Chemistry" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="Computer_Science" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="English" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="Total_Marks" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="Overall_%" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="GPA" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
+    </cacheField>
     <cacheField name="Performance_Status" numFmtId="0">
       <sharedItems count="2">
         <s v="excellent"/>
@@ -10245,6 +10351,11 @@
       </sharedItems>
     </cacheField>
   </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
 </pivotCacheDefinition>
 </file>
 
@@ -10606,274 +10717,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="0" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" createdVersion="8" useAutoFormatting="1" indent="0" outline="1" outlineData="1" showDrill="1" multipleFieldFilters="0" chartFormat="71">
-  <location ref="I9:J15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField showAll="0">
-      <items count="23">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="4"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="9">
-        <item x="3"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Attendance_%" fld="4" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleMedium10" showRowHeaders="1" showColHeaders="1" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" createdVersion="8" useAutoFormatting="1" indent="0" outline="1" outlineData="1" showDrill="1" multipleFieldFilters="0" chartFormat="13">
-  <location ref="A3:B26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="23">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="4"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="9">
-        <item x="3"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="23">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of GPA" fld="12" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleMedium3" showRowHeaders="1" showColHeaders="1" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="0" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" createdVersion="8" useAutoFormatting="1" indent="0" outline="1" outlineData="1" showDrill="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000004000000}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="P8:T31" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField axis="axisRow" showAll="0">
@@ -11048,26 +10892,26 @@
     <dataField name="Sum of Computer_Science" fld="8" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="0">
+    <format dxfId="7">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="6">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="5">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="4">
@@ -11080,12 +10924,17 @@
       </pivotArea>
     </format>
   </formats>
-  <pivotTableStyleInfo name="PivotStyleMedium11" showRowHeaders="1" showColHeaders="1" showLastColumn="1"/>
+  <pivotTableStyleInfo name="PivotStyleMedium11" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" createdVersion="8" useAutoFormatting="1" indent="0" outline="1" outlineData="1" showDrill="1" multipleFieldFilters="0" chartFormat="38">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000003000000}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="38">
   <location ref="G17:H20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0">
@@ -11182,12 +11031,85 @@
   <dataFields count="1">
     <dataField name="Sum of Student_ID" fld="0" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotTableStyleInfo name="PivotStyleMedium10" showRowHeaders="1" showColHeaders="1" showLastColumn="1"/>
+  <chartFormats count="6">
+    <chartFormat chart="29" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="29" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="29" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="36" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="36" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="36" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleMedium10" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" createdVersion="8" useAutoFormatting="1" indent="0" outline="1" outlineData="1" showDrill="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000002000000}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D9:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0">
@@ -11281,62 +11203,384 @@
   <dataFields count="1">
     <dataField name="Sum of GPA" fld="12" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotTableStyleInfo name="PivotStyleMedium10" showRowHeaders="1" showColHeaders="1" showLastColumn="1"/>
+  <pivotTableStyleInfo name="PivotStyleMedium10" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000001000000}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="71">
+  <location ref="I9:J15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField showAll="0">
+      <items count="23">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="9">
+        <item x="3"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Attendance_%" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="51" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="56" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleMedium10" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
+  <location ref="A3:B26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="23">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="9">
+        <item x="3"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="23">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of GPA" fld="12" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="3" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleMedium3" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="P7:T12">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="P7:T12" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="P7:T12">
+  <autoFilter ref="P7:T12" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="department"/>
-    <tableColumn id="2" name="AVG GPA"/>
-    <tableColumn id="3" name="AVG ATTENDENCE"/>
-    <tableColumn id="4" name="OVERAL ATTENDANCE AVG" dataDxfId="6"/>
-    <tableColumn id="5" name="OVERAL %" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="department"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="AVG GPA"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="AVG ATTENDENCE"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="OVERAL ATTENDANCE AVG" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="OVERAL %" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="L33:L34">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="L33:L34" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="L33:L34">
+  <autoFilter ref="L33:L34" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="P14:P15">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="P14:P15" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table4" displayName="Table4" ref="P14:P15">
+  <autoFilter ref="P14:P15" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table1" displayName="Table1" ref="A1:N23">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:N23" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1" displayName="Table1" ref="A1:N23">
+  <autoFilter ref="A1:N23" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="Student_ID"/>
-    <tableColumn id="2" name="Gender"/>
-    <tableColumn id="3" name="Department"/>
-    <tableColumn id="4" name="Semester"/>
-    <tableColumn id="5" name="Attendance_%"/>
-    <tableColumn id="6" name="Maths"/>
-    <tableColumn id="7" name="Physics"/>
-    <tableColumn id="8" name="Chemistry"/>
-    <tableColumn id="9" name="Computer_Science"/>
-    <tableColumn id="10" name="English"/>
-    <tableColumn id="11" name="Total_Marks"/>
-    <tableColumn id="12" name="Overall_%"/>
-    <tableColumn id="13" name="GPA"/>
-    <tableColumn id="14" name="Performance_Status"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Student_ID"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Gender"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Department"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Semester"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Attendance_%"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Maths"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Physics"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Chemistry"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Computer_Science"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="English"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="Total_Marks"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="Overall_%"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="GPA"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0300-00000E000000}" name="Performance_Status"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11621,25 +11865,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:B9"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.953125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5047619047619" customWidth="1"/>
-    <col min="2" max="3" width="15.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="12.5078125" customWidth="1"/>
+    <col min="2" max="3" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -11647,88 +11891,86 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.12</v>
+        <v>8.1199999999999992</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.44333333333333</v>
+        <v>7.4433333333333298</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.405</v>
+        <v>7.4050000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.40285714285714</v>
+        <v>7.4028571428571404</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.17333333333333</v>
+        <v>8.1733333333333302</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>38.5445238095238</v>
+        <v>38.544523809523803</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:T31"/>
   <sheetViews>
-    <sheetView zoomScale="31" zoomScaleNormal="31" topLeftCell="A124" workbookViewId="0">
+    <sheetView topLeftCell="A124" zoomScale="31" zoomScaleNormal="31" workbookViewId="0">
       <selection activeCell="I181" sqref="I181"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.953125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.1809523809524" customWidth="1"/>
-    <col min="2" max="2" width="10.352380952381" customWidth="1"/>
-    <col min="3" max="4" width="13.5904761904762" customWidth="1"/>
-    <col min="5" max="5" width="11.0285714285714" customWidth="1"/>
-    <col min="7" max="7" width="13.5904761904762" customWidth="1"/>
-    <col min="8" max="8" width="17.752380952381" customWidth="1"/>
-    <col min="9" max="9" width="13.5904761904762" customWidth="1"/>
-    <col min="10" max="10" width="20.3142857142857" customWidth="1"/>
-    <col min="16" max="16" width="13.5904761904762" customWidth="1"/>
-    <col min="17" max="17" width="13.047619047619" customWidth="1"/>
-    <col min="18" max="18" width="13.8571428571429" customWidth="1"/>
-    <col min="19" max="19" width="16.2761904761905" customWidth="1"/>
-    <col min="20" max="20" width="23.8095238095238" customWidth="1"/>
+    <col min="1" max="1" width="13.1796875" customWidth="1"/>
+    <col min="2" max="2" width="10.35546875" customWidth="1"/>
+    <col min="3" max="4" width="13.5859375" customWidth="1"/>
+    <col min="5" max="5" width="11.02734375" customWidth="1"/>
+    <col min="7" max="7" width="13.5859375" customWidth="1"/>
+    <col min="8" max="8" width="17.75390625" customWidth="1"/>
+    <col min="9" max="9" width="13.5859375" customWidth="1"/>
+    <col min="10" max="10" width="20.3125" customWidth="1"/>
+    <col min="16" max="16" width="13.5859375" customWidth="1"/>
+    <col min="17" max="17" width="13.046875" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" customWidth="1"/>
+    <col min="19" max="19" width="16.27734375" customWidth="1"/>
+    <col min="20" max="20" width="23.80859375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -11736,15 +11978,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>8.72</v>
+        <v>8.7200000000000006</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -11752,7 +11994,7 @@
         <v>6.34</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -11760,15 +12002,15 @@
         <v>7.14</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7">
-        <v>8.22</v>
+        <v>8.2200000000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -11792,7 +12034,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -11828,7 +12070,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -11839,7 +12081,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>8.12</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>14</v>
@@ -11864,7 +12106,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -11900,7 +12142,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -11936,12 +12178,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>10</v>
       </c>
       <c r="B13">
-        <v>8.62</v>
+        <v>8.6199999999999992</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>7</v>
@@ -11972,7 +12214,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -12002,7 +12244,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -12032,7 +12274,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -12056,7 +12298,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -12086,7 +12328,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -12116,7 +12358,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -12146,12 +12388,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>17</v>
       </c>
       <c r="B20">
-        <v>8.12</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>7</v>
@@ -12176,7 +12418,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -12200,7 +12442,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -12224,7 +12466,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -12248,7 +12490,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -12272,7 +12514,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -12296,7 +12538,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>7</v>
       </c>
@@ -12320,7 +12562,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="15:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="O27" s="3"/>
       <c r="P27" s="4">
         <v>19</v>
@@ -12338,7 +12580,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="15:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="O28" s="3"/>
       <c r="P28" s="4">
         <v>20</v>
@@ -12356,7 +12598,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="15:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="O29" s="3"/>
       <c r="P29" s="4">
         <v>21</v>
@@ -12374,7 +12616,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="15:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="O30" s="3"/>
       <c r="P30" s="4">
         <v>22</v>
@@ -12392,7 +12634,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="15:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="O31" s="3"/>
       <c r="P31" s="4" t="s">
         <v>7</v>
@@ -12412,61 +12654,57 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="30" zoomScaleNormal="30" topLeftCell="A8" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
       <selection activeCell="Z25" sqref="Z25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.953125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="53" ht="16.1" customHeight="1"/>
+    <row r="53" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.953125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.2380952380952" customWidth="1"/>
-    <col min="2" max="2" width="9.00952380952381" customWidth="1"/>
-    <col min="3" max="3" width="13.047619047619" customWidth="1"/>
-    <col min="4" max="4" width="10.7619047619048" customWidth="1"/>
-    <col min="5" max="5" width="15.2" customWidth="1"/>
-    <col min="7" max="7" width="9.00952380952381" customWidth="1"/>
-    <col min="8" max="8" width="11.2952380952381" customWidth="1"/>
-    <col min="9" max="9" width="18.6952380952381" customWidth="1"/>
-    <col min="11" max="11" width="13.3142857142857" customWidth="1"/>
-    <col min="12" max="12" width="11.2952380952381" customWidth="1"/>
-    <col min="13" max="13" width="12.1047619047619" customWidth="1"/>
-    <col min="14" max="14" width="20.047619047619" customWidth="1"/>
-    <col min="16" max="16" width="13.447619047619" customWidth="1"/>
-    <col min="17" max="17" width="10.7619047619048" customWidth="1"/>
-    <col min="18" max="18" width="18.5619047619048" customWidth="1"/>
-    <col min="19" max="19" width="18.2952380952381" customWidth="1"/>
-    <col min="20" max="20" width="11.7047619047619" customWidth="1"/>
+    <col min="1" max="1" width="12.23828125" customWidth="1"/>
+    <col min="2" max="2" width="9.01171875" customWidth="1"/>
+    <col min="3" max="3" width="13.046875" customWidth="1"/>
+    <col min="4" max="4" width="10.76171875" customWidth="1"/>
+    <col min="5" max="5" width="15.19921875" customWidth="1"/>
+    <col min="7" max="7" width="9.01171875" customWidth="1"/>
+    <col min="8" max="8" width="11.296875" customWidth="1"/>
+    <col min="9" max="9" width="18.6953125" customWidth="1"/>
+    <col min="11" max="11" width="13.31640625" customWidth="1"/>
+    <col min="12" max="12" width="11.296875" customWidth="1"/>
+    <col min="13" max="13" width="12.10546875" customWidth="1"/>
+    <col min="14" max="14" width="20.04296875" customWidth="1"/>
+    <col min="16" max="16" width="13.44921875" customWidth="1"/>
+    <col min="17" max="17" width="10.76171875" customWidth="1"/>
+    <col min="18" max="18" width="18.5625" customWidth="1"/>
+    <col min="19" max="19" width="18.29296875" customWidth="1"/>
+    <col min="20" max="20" width="11.703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -12510,7 +12748,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12551,14 +12789,14 @@
       </c>
       <c r="M2">
         <f>(K2/500)*10</f>
-        <v>8.72</v>
+        <v>8.7200000000000006</v>
       </c>
       <c r="N2" t="str">
         <f>IF(Student_Data!O27,"excellent","average")</f>
         <v>average</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12606,7 +12844,7 @@
         <v>excellent</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12643,7 +12881,7 @@
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>71.4</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="M4">
         <f t="shared" si="2"/>
@@ -12654,7 +12892,7 @@
         <v>average</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -12695,14 +12933,14 @@
       </c>
       <c r="M5">
         <f t="shared" si="2"/>
-        <v>8.22</v>
+        <v>8.2200000000000006</v>
       </c>
       <c r="N5" t="str">
         <f t="shared" si="3"/>
         <v>average</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -12750,7 +12988,7 @@
         <v>excellent</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -12813,7 +13051,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -12850,7 +13088,7 @@
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>76.4</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="M8">
         <f t="shared" si="2"/>
@@ -12865,19 +13103,19 @@
       </c>
       <c r="Q8">
         <f>AVERAGEIF(C2:C23,"ECE",M1:M23)</f>
-        <v>7.405</v>
+        <v>7.4050000000000002</v>
       </c>
       <c r="R8">
         <v>85.5</v>
       </c>
       <c r="S8">
-        <v>83.1818181818182</v>
+        <v>83.181818181818201</v>
       </c>
       <c r="T8">
-        <v>75.5090909090909</v>
+        <v>75.509090909090901</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -12929,19 +13167,19 @@
       </c>
       <c r="Q9">
         <f>AVERAGEIF(C2:C23,"CSE",M1:M23)</f>
-        <v>7.44333333333333</v>
+        <v>7.4433333333333298</v>
       </c>
       <c r="R9">
         <v>84.5</v>
       </c>
       <c r="S9">
-        <v>83.1818181818182</v>
+        <v>83.181818181818201</v>
       </c>
       <c r="T9">
-        <v>75.5090909090909</v>
+        <v>75.509090909090901</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -12993,19 +13231,19 @@
       </c>
       <c r="Q10">
         <f>AVERAGEIF(C2:C23,"MECHANICAL",M1:M23)</f>
-        <v>8.17333333333333</v>
+        <v>8.1733333333333302</v>
       </c>
       <c r="R10">
         <v>81</v>
       </c>
       <c r="S10">
-        <v>83.1818181818182</v>
+        <v>83.181818181818201</v>
       </c>
       <c r="T10">
-        <v>75.5090909090909</v>
+        <v>75.509090909090901</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -13046,7 +13284,7 @@
       </c>
       <c r="M11">
         <f t="shared" si="2"/>
-        <v>8.62</v>
+        <v>8.6199999999999992</v>
       </c>
       <c r="N11" t="str">
         <f t="shared" si="3"/>
@@ -13057,19 +13295,19 @@
       </c>
       <c r="Q11">
         <f>AVERAGEIF(C2:C23,"EEE",M1:M23)</f>
-        <v>7.40285714285714</v>
+        <v>7.4028571428571404</v>
       </c>
       <c r="R11">
-        <v>78.1428571428571</v>
+        <v>78.142857142857096</v>
       </c>
       <c r="S11">
-        <v>83.1818181818182</v>
+        <v>83.181818181818201</v>
       </c>
       <c r="T11">
-        <v>75.5090909090909</v>
+        <v>75.509090909090901</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -13121,19 +13359,19 @@
       </c>
       <c r="Q12">
         <f>AVERAGEIF(C2:C23,"CIVIL",M1:M23)</f>
-        <v>8.12</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="R12">
         <v>78</v>
       </c>
       <c r="S12">
-        <v>83.1818181818182</v>
+        <v>83.181818181818201</v>
       </c>
       <c r="T12">
-        <v>75.5090909090909</v>
+        <v>75.509090909090901</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -13181,7 +13419,7 @@
         <v>average</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -13232,7 +13470,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -13269,7 +13507,7 @@
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>74.6</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="M15">
         <f t="shared" si="2"/>
@@ -13280,7 +13518,7 @@
         <v>average</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -13317,7 +13555,7 @@
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>79.4</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="M16">
         <f t="shared" si="2"/>
@@ -13328,7 +13566,7 @@
         <v>average</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -13376,7 +13614,7 @@
         <v>average</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -13417,14 +13655,14 @@
       </c>
       <c r="M18">
         <f t="shared" si="2"/>
-        <v>8.12</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="N18" t="str">
         <f t="shared" si="3"/>
         <v>average</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -13472,7 +13710,7 @@
         <v>excellent</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -13509,7 +13747,7 @@
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>81.4</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="M20">
         <f t="shared" si="2"/>
@@ -13520,7 +13758,7 @@
         <v>average</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -13568,7 +13806,7 @@
         <v>excellent</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -13616,7 +13854,7 @@
         <v>average</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -13664,14 +13902,13 @@
         <v>average</v>
       </c>
     </row>
-    <row r="33" spans="12:12">
+    <row r="33" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L33" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <tableParts count="4">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
